--- a/joint_VDZP/joint_VDZP_params.xlsx
+++ b/joint_VDZP/joint_VDZP_params.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,37 +477,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>n_jobs</t>
+          <t>reg_alpha</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>reg_alpha</t>
+          <t>reg_lambda</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>reg_lambda</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
